--- a/Three stateemnt modle and ratio anaysis.xlsx
+++ b/Three stateemnt modle and ratio anaysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D8015-73EE-41F2-87A0-1FD7999AF0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F59E4-066D-4D23-9DE5-D6D983FCF424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{40687B01-7967-424E-9962-0FB7D2F32A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{40687B01-7967-424E-9962-0FB7D2F32A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="6" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="169" formatCode="0.0000_ ;\-0.0000\ "/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1659,7 +1659,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1927,6 +1927,26 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,37 +1958,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="37" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2398,7 +2387,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4811,9 +4799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67540C3-D160-4087-AD83-4A64B7AB7019}">
   <dimension ref="B1:AD21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4833,20 +4821,20 @@
       </c>
     </row>
     <row r="2" spans="2:30">
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153" t="s">
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="2:30" ht="15" thickBot="1">
       <c r="F3" s="3">
@@ -5885,20 +5873,20 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153" t="s">
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="1:17">
       <c r="F3" s="3">
@@ -6684,20 +6672,20 @@
     <row r="2" spans="2:17">
       <c r="B2" s="61"/>
       <c r="E2" s="132"/>
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153" t="s">
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="61"/>
@@ -7090,7 +7078,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -7108,20 +7096,20 @@
     <row r="2" spans="1:17">
       <c r="B2" s="61"/>
       <c r="E2" s="132"/>
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153" t="s">
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="1:17">
       <c r="B3" s="61"/>
@@ -7160,37 +7148,37 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="159" customFormat="1">
-      <c r="B4" s="160"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-    </row>
-    <row r="5" spans="1:17" s="158" customFormat="1">
-      <c r="B5" s="165" t="s">
+    <row r="4" spans="1:17">
+      <c r="B4" s="61"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="150" t="s">
@@ -7546,22 +7534,22 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="168"/>
-      <c r="M18" s="168"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="168"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="66" t="s">
@@ -7691,49 +7679,49 @@
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="169">
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="159">
         <f t="shared" ref="F22:O22" si="7">F19+F20-F21</f>
         <v>45500.000000000007</v>
       </c>
-      <c r="G22" s="169">
+      <c r="G22" s="159">
         <f t="shared" si="7"/>
         <v>42350.000000000007</v>
       </c>
-      <c r="H22" s="169">
+      <c r="H22" s="159">
         <f t="shared" si="7"/>
         <v>40145.000000000007</v>
       </c>
-      <c r="I22" s="169">
+      <c r="I22" s="159">
         <f t="shared" si="7"/>
         <v>38601.000000000007</v>
       </c>
-      <c r="J22" s="169">
+      <c r="J22" s="159">
         <f t="shared" si="7"/>
         <v>37521.000000000007</v>
       </c>
-      <c r="K22" s="169" t="e">
+      <c r="K22" s="159" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="L22" s="169" t="e">
+      <c r="L22" s="159" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="169" t="e">
+      <c r="M22" s="159" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="N22" s="169" t="e">
+      <c r="N22" s="159" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="O22" s="169" t="e">
+      <c r="O22" s="159" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
@@ -7752,22 +7740,22 @@
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="168"/>
-      <c r="O24" s="168"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="66" t="s">
@@ -7857,7 +7845,7 @@
       <c r="B27" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="174">
+      <c r="D27" s="164">
         <v>0.05</v>
       </c>
       <c r="F27" s="66">
@@ -7929,7 +7917,7 @@
         <v>25000</v>
       </c>
       <c r="K28" s="134" t="e">
-        <f t="shared" ref="F28:O28" si="12">K25+K26</f>
+        <f t="shared" ref="K28:O28" si="12">K25+K26</f>
         <v>#REF!</v>
       </c>
       <c r="L28" s="134" t="e">
@@ -7961,9 +7949,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7170D092-5EE3-4703-9A4A-3214EAAA5835}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -7983,20 +7971,20 @@
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="E2" s="153" t="s">
+      <c r="E2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153" t="s">
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
     </row>
     <row r="3" spans="2:14">
       <c r="E3" s="3">
@@ -8057,43 +8045,43 @@
         <v>219</v>
       </c>
       <c r="D7" s="63"/>
-      <c r="E7" s="171">
+      <c r="E7" s="161">
         <f>IS!F9/IS!F5</f>
         <v>0.53617486598599839</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="161">
         <f>IS!G9/IS!G5</f>
         <v>0.62793653746289368</v>
       </c>
-      <c r="G7" s="171">
+      <c r="G7" s="161">
         <f>IS!H9/IS!H5</f>
         <v>0.65627339710173327</v>
       </c>
-      <c r="H7" s="171">
+      <c r="H7" s="161">
         <f>IS!I9/IS!I5</f>
         <v>0.62638984481987892</v>
       </c>
-      <c r="I7" s="171">
+      <c r="I7" s="161">
         <f>IS!J9/IS!J5</f>
         <v>0.57205490616298282</v>
       </c>
-      <c r="J7" s="171">
+      <c r="J7" s="161">
         <f>IS!K9/IS!K5</f>
         <v>0.628</v>
       </c>
-      <c r="K7" s="171">
+      <c r="K7" s="161">
         <f>IS!L9/IS!L5</f>
         <v>0.628</v>
       </c>
-      <c r="L7" s="171">
+      <c r="L7" s="161">
         <f>IS!M9/IS!M5</f>
         <v>0.628</v>
       </c>
-      <c r="M7" s="171">
+      <c r="M7" s="161">
         <f>IS!N9/IS!N5</f>
         <v>0.628</v>
       </c>
-      <c r="N7" s="171">
+      <c r="N7" s="161">
         <f>IS!O9/IS!O5</f>
         <v>0.628</v>
       </c>
@@ -8106,43 +8094,43 @@
         <v>221</v>
       </c>
       <c r="D8" s="64"/>
-      <c r="E8" s="171">
+      <c r="E8" s="161">
         <f>IS!F12/IS!F5</f>
         <v>9.1759476067654791E-2</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="161">
         <f>IS!G12/IS!G5</f>
         <v>0.37384611807380191</v>
       </c>
-      <c r="G8" s="171">
+      <c r="G8" s="161">
         <f>IS!H12/IS!H5</f>
         <v>0.41865330655713617</v>
       </c>
-      <c r="H8" s="171">
+      <c r="H8" s="161">
         <f>IS!I12/IS!I5</f>
         <v>0.38498435426763072</v>
       </c>
-      <c r="I8" s="171">
+      <c r="I8" s="161">
         <f>IS!J12/IS!J5</f>
         <v>0.29543379340009207</v>
       </c>
-      <c r="J8" s="171">
+      <c r="J8" s="161">
         <f>IS!K12/IS!K5</f>
         <v>0.38799999999999996</v>
       </c>
-      <c r="K8" s="171">
+      <c r="K8" s="161">
         <f>IS!L12/IS!L5</f>
         <v>0.38799999999999996</v>
       </c>
-      <c r="L8" s="171">
+      <c r="L8" s="161">
         <f>IS!M12/IS!M5</f>
         <v>0.38799999999999996</v>
       </c>
-      <c r="M8" s="171">
+      <c r="M8" s="161">
         <f>IS!N12/IS!N5</f>
         <v>0.38800000000000001</v>
       </c>
-      <c r="N8" s="171">
+      <c r="N8" s="161">
         <f>IS!O12/IS!O5</f>
         <v>0.38800000000000007</v>
       </c>
@@ -8155,43 +8143,43 @@
         <v>224</v>
       </c>
       <c r="D9" s="64"/>
-      <c r="E9" s="171">
+      <c r="E9" s="161">
         <f>IS!F15/IS!F5</f>
         <v>-0.14001640260064421</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="161">
         <f>IS!G15/IS!G5</f>
         <v>0.23317134419978144</v>
       </c>
-      <c r="G9" s="171">
+      <c r="G9" s="161">
         <f>IS!H15/IS!H5</f>
         <v>0.2982653782371093</v>
       </c>
-      <c r="H9" s="171">
+      <c r="H9" s="161">
         <f>IS!I15/IS!I5</f>
         <v>0.26759524029148601</v>
       </c>
-      <c r="I9" s="171">
+      <c r="I9" s="161">
         <f>IS!J15/IS!J5</f>
         <v>0.17409087135990101</v>
       </c>
-      <c r="J9" s="171">
+      <c r="J9" s="161">
         <f>IS!K15/IS!K5</f>
         <v>0.27713163497542137</v>
       </c>
-      <c r="K9" s="171">
+      <c r="K9" s="161">
         <f>IS!L15/IS!L5</f>
         <v>0.28601143901823378</v>
       </c>
-      <c r="L9" s="171">
+      <c r="L9" s="161">
         <f>IS!M15/IS!M5</f>
         <v>0.29401626093195998</v>
       </c>
-      <c r="M9" s="171">
+      <c r="M9" s="161">
         <f>IS!N15/IS!N5</f>
         <v>0.30116466939762015</v>
       </c>
-      <c r="N9" s="171">
+      <c r="N9" s="161">
         <f>IS!O15/IS!O5</f>
         <v>0.30764100883382733</v>
       </c>
@@ -8204,43 +8192,43 @@
         <v>226</v>
       </c>
       <c r="D10" s="64"/>
-      <c r="E10" s="171">
+      <c r="E10" s="161">
         <f>IS!F20/IS!F5</f>
         <v>-0.11881188118811881</v>
       </c>
-      <c r="F10" s="171">
+      <c r="F10" s="161">
         <f>IS!G20/IS!G5</f>
         <v>0.15101262585160558</v>
       </c>
-      <c r="G10" s="171">
+      <c r="G10" s="161">
         <f>IS!H20/IS!H5</f>
         <v>0.19898959506832828</v>
       </c>
-      <c r="H10" s="171">
+      <c r="H10" s="161">
         <f>IS!I20/IS!I5</f>
         <v>0.17862459466555028</v>
       </c>
-      <c r="I10" s="171">
+      <c r="I10" s="161">
         <f>IS!J20/IS!J5</f>
         <v>0.11394009825154508</v>
       </c>
-      <c r="J10" s="171">
+      <c r="J10" s="161">
         <f>IS!K20/IS!K5</f>
         <v>0.1864817068520977</v>
       </c>
-      <c r="K10" s="171">
+      <c r="K10" s="161">
         <f>IS!L20/IS!L5</f>
         <v>0.19306880804404</v>
       </c>
-      <c r="L10" s="171">
+      <c r="L10" s="161">
         <f>IS!M20/IS!M5</f>
         <v>0.19900566361641045</v>
       </c>
-      <c r="M10" s="171">
+      <c r="M10" s="161">
         <f>IS!N20/IS!N5</f>
         <v>0.20430261878315562</v>
       </c>
-      <c r="N10" s="171">
+      <c r="N10" s="161">
         <f>IS!O20/IS!O5</f>
         <v>0.2090985624263102</v>
       </c>
@@ -8253,43 +8241,43 @@
         <v>228</v>
       </c>
       <c r="D11" s="63"/>
-      <c r="E11" s="172">
+      <c r="E11" s="162">
         <f>IS!F20/BS!F42</f>
         <v>-0.13792532494411788</v>
       </c>
-      <c r="F11" s="172">
+      <c r="F11" s="162">
         <f>IS!G20/((BS!F42+BS!G42)/2)</f>
         <v>0.2486145758235028</v>
       </c>
-      <c r="G11" s="172">
+      <c r="G11" s="162">
         <f>IS!H20/((BS!G42+BS!H42)/2)</f>
         <v>0.29997310197515892</v>
       </c>
-      <c r="H11" s="172">
+      <c r="H11" s="162">
         <f>IS!I20/((BS!H42+BS!I42)/2)</f>
         <v>0.21208797226539955</v>
       </c>
-      <c r="I11" s="172">
+      <c r="I11" s="162">
         <f>IS!J20/((BS!I42+BS!J42)/2)</f>
         <v>0.10330000376283212</v>
       </c>
-      <c r="J11" s="172">
+      <c r="J11" s="162">
         <f>IS!K20/((BS!J42+BS!K42)/2)</f>
         <v>0.32532014157723982</v>
       </c>
-      <c r="K11" s="172" t="e">
+      <c r="K11" s="162" t="e">
         <f>IS!L20/((BS!K42+BS!L42)/2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="172" t="e">
+      <c r="L11" s="162" t="e">
         <f>IS!M20/((BS!L42+BS!M42)/2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="172" t="e">
+      <c r="M11" s="162" t="e">
         <f>IS!N20/((BS!M42+BS!N42)/2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="172" t="e">
+      <c r="N11" s="162" t="e">
         <f>IS!O20/((BS!N42+BS!O42)/2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8302,43 +8290,43 @@
         <v>231</v>
       </c>
       <c r="D12" s="64"/>
-      <c r="E12" s="172">
+      <c r="E12" s="162">
         <f>IS!F20/((BS!F18))</f>
         <v>-7.9097296955118065E-2</v>
       </c>
-      <c r="F12" s="172">
+      <c r="F12" s="162">
         <f>IS!G20/((BS!F18+BS!G18)/2)</f>
         <v>0.14680324441212927</v>
       </c>
-      <c r="G12" s="172">
+      <c r="G12" s="162">
         <f>IS!H20/((BS!G18+BS!H18)/2)</f>
         <v>0.20362670370940544</v>
       </c>
-      <c r="H12" s="172">
+      <c r="H12" s="162">
         <f>IS!I20/((BS!H18+BS!I18)/2)</f>
         <v>0.1636961872218122</v>
       </c>
-      <c r="I12" s="172">
+      <c r="I12" s="162">
         <f>IS!J20/((BS!I18+BS!J18)/2)</f>
         <v>8.3128480547473085E-2</v>
       </c>
-      <c r="J12" s="172">
+      <c r="J12" s="162">
         <f>IS!K20/((BS!J18+BS!K18)/2)</f>
         <v>0.26610008824700176</v>
       </c>
-      <c r="K12" s="172" t="e">
+      <c r="K12" s="162" t="e">
         <f>IS!L20/((BS!K18+BS!L18)/2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="172" t="e">
+      <c r="L12" s="162" t="e">
         <f>IS!M20/((BS!L18+BS!M18)/2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="172" t="e">
+      <c r="M12" s="162" t="e">
         <f>IS!N20/((BS!M18+BS!N18)/2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="172" t="e">
+      <c r="N12" s="162" t="e">
         <f>IS!O20/((BS!N18+BS!O18)/2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8351,43 +8339,43 @@
         <v>234</v>
       </c>
       <c r="D13" s="64"/>
-      <c r="E13" s="171">
+      <c r="E13" s="161">
         <f>IS!F15*(1-IS!$C$19)/('Supporting Schedules'!F14+'Supporting Schedules'!F22)</f>
         <v>-0.15129442416013794</v>
       </c>
-      <c r="F13" s="171">
+      <c r="F13" s="161">
         <f>IS!G15*(1-IS!$C$19)/('Supporting Schedules'!G14+'Supporting Schedules'!G22)</f>
         <v>0.3969239468476109</v>
       </c>
-      <c r="G13" s="171">
+      <c r="G13" s="161">
         <f>IS!H15*(1-IS!$C$19)/('Supporting Schedules'!H14+'Supporting Schedules'!H22)</f>
         <v>0.57797966101694898</v>
       </c>
-      <c r="H13" s="171">
+      <c r="H13" s="161">
         <f>IS!I15*(1-IS!$C$19)/('Supporting Schedules'!I14+'Supporting Schedules'!I22)</f>
         <v>0.5178020124355176</v>
       </c>
-      <c r="I13" s="171">
+      <c r="I13" s="161">
         <f>IS!J15*(1-IS!$C$19)/('Supporting Schedules'!J14+'Supporting Schedules'!J22)</f>
         <v>0.31832607281543823</v>
       </c>
-      <c r="J13" s="171" t="e">
+      <c r="J13" s="161" t="e">
         <f>IS!K15*(1-IS!$C$19)/('Supporting Schedules'!K14+'Supporting Schedules'!K22)</f>
         <v>#REF!</v>
       </c>
-      <c r="K13" s="171" t="e">
+      <c r="K13" s="161" t="e">
         <f>IS!L15*(1-IS!$C$19)/('Supporting Schedules'!L14+'Supporting Schedules'!L22)</f>
         <v>#REF!</v>
       </c>
-      <c r="L13" s="171" t="e">
+      <c r="L13" s="161" t="e">
         <f>IS!M15*(1-IS!$C$19)/('Supporting Schedules'!M14+'Supporting Schedules'!M22)</f>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="171" t="e">
+      <c r="M13" s="161" t="e">
         <f>IS!N15*(1-IS!$C$19)/('Supporting Schedules'!N14+'Supporting Schedules'!N22)</f>
         <v>#REF!</v>
       </c>
-      <c r="N13" s="171" t="e">
+      <c r="N13" s="161" t="e">
         <f>IS!O15*(1-IS!$C$19)/('Supporting Schedules'!O14+'Supporting Schedules'!O22)</f>
         <v>#REF!</v>
       </c>
@@ -8729,8 +8717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01086733-3335-43E5-9DD6-302C5C98D415}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -8746,20 +8734,20 @@
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="156" t="s">
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -13671,7 +13659,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="24"/>
-      <c r="D107" s="173">
+      <c r="D107" s="163">
         <f>D106/D103</f>
         <v>4.9999999999999996E-2</v>
       </c>
@@ -38943,8 +38931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F189DE-F548-4FAA-8AA5-4099541FD2B0}">
   <dimension ref="C3:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
